--- a/doc/詳細設計/テーブル定義書.xlsx
+++ b/doc/詳細設計/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b01a156e008a7c2/Documents/未来のかたち/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Desktop\Portfolio\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{C593A78B-0008-4ED7-BED2-1A80997AB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7557324-8946-4335-AB91-673D27C1CC85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5052A-704C-44AB-A029-926FE02D79A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2C78D113-7E5C-4B5E-A337-1671F550DFB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{2C78D113-7E5C-4B5E-A337-1671F550DFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="121">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>forecast_no, forecast_target_date</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>天気</t>
     <rPh sb="0" eb="2">
       <t>テンキ</t>
@@ -527,37 +523,6 @@
     <t>トランザクション</t>
   </si>
   <si>
-    <t>トランザクション。実績には在庫数も持つ。発注情報修正が入ったら、以降のデータはすべて計算しなおす。</t>
-    <rPh sb="9" eb="11">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>休日カレンダー</t>
     <rPh sb="0" eb="2">
       <t>キュウジツ</t>
@@ -580,6 +545,647 @@
   </si>
   <si>
     <t>holiday</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>MySQL 8.0.36</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Yes (FK)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>トランザクション。実績には在庫数も持つ。発注情報修正が入ったら、以降の在庫数はすべて計算しなおす。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_INCREMENT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    group_code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    group_code_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    code_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    sort_key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    created_at datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CURRENT_TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    updated_at datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CURRENT_TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CURRENT_TIMESTAMP</t>
+    </r>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> code_master </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -587,7 +1193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +1253,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0080FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF2800"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1041,7 +1675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1833,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,10 +1859,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1545,7 +2184,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1596,10 +2235,10 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1610,10 +2249,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1624,10 +2263,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1635,10 +2274,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>39</v>
@@ -1649,10 +2288,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>39</v>
@@ -1689,7 +2328,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1755,7 +2394,9 @@
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1842,7 +2483,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>20</v>
@@ -1885,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>23</v>
@@ -1908,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>25</v>
@@ -2002,9 +2643,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2071,7 +2712,9 @@
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2079,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="12"/>
@@ -2155,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>20</v>
@@ -2170,6 +2813,432 @@
         <v>9</v>
       </c>
       <c r="G14" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="13">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="16">
+        <v>4</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="13">
+        <v>5</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="16">
+        <v>6</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="13">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="16">
+        <v>8</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="13">
+        <v>9</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="30">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD23F6-42C6-4787-9308-E9B0B0F60CEF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.69921875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2178,23 +3247,17 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>9</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="13">
@@ -2221,7 +3284,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>61</v>
@@ -2238,7 +3301,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>62</v>
@@ -2255,10 +3318,10 @@
         <v>54</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="21"/>
@@ -2269,112 +3332,740 @@
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="13">
+        <v>23</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="3">
-        <v>9</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="15" t="s">
+    <row r="23" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="30">
+        <v>1</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="30">
-        <v>1</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="33" t="s">
+      <c r="F25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="34"/>
+      <c r="G25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EE5CD4-95EB-4732-A362-52B8775ADED7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.69921875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="13">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="13">
+        <v>4</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="13">
+        <v>5</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="30">
+        <v>1</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF4ED65-3C37-426D-9CB3-7E90115FF7FC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.69921875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="13">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="30">
+        <v>1</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
@@ -2398,15 +4089,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD23F6-42C6-4787-9308-E9B0B0F60CEF}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB70A204-AD1B-45EF-913D-7EAC18D6ED73}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2466,13 +4157,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2480,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="12"/>
@@ -2555,56 +4248,60 @@
       <c r="A14" s="13">
         <v>1</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="13">
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="13">
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
     </row>
@@ -2613,13 +4310,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="21"/>
@@ -2630,13 +4327,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="21"/>
@@ -2647,13 +4344,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="21"/>
@@ -2664,10 +4361,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>23</v>
@@ -2687,10 +4384,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>25</v>
@@ -2739,7 +4436,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="33" t="s">
@@ -2749,6 +4446,57 @@
         <v>22</v>
       </c>
       <c r="G25" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="55" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2774,987 +4522,4 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EE5CD4-95EB-4732-A362-52B8775ADED7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.69921875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
-        <v>2</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
-        <v>4</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="30">
-        <v>1</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF4ED65-3C37-426D-9CB3-7E90115FF7FC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.69921875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
-        <v>6</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="30">
-        <v>1</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB70A204-AD1B-45EF-913D-7EAC18D6ED73}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.69921875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
-        <v>2</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
-        <v>4</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="13">
-        <v>5</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="13">
-        <v>6</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="30">
-        <v>1</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/doc/詳細設計/テーブル定義書.xlsx
+++ b/doc/詳細設計/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Desktop\Portfolio\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5052A-704C-44AB-A029-926FE02D79A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D9479-B107-4C58-AE87-543073861648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{2C78D113-7E5C-4B5E-A337-1671F550DFB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C78D113-7E5C-4B5E-A337-1671F550DFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="127">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -208,20 +208,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>予測番号</t>
-    <rPh sb="0" eb="2">
-      <t>ヨソク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>forecast_no</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>forecast_date</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -341,10 +327,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>result_target_date</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>orders</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -433,10 +415,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>forecast_number</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>students_enrolled</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1186,6 +1164,52 @@
       </rPr>
       <t>(</t>
     </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>予測情報ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>forecast_id</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>idx_forecast_details_01</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>forecast_id, forecast_target_date</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>idx_results_01</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>idx_orders_01</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ordered_on, deliveried_on</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>idx_holiday_calendar_01</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>idx_code_master_01</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1296,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1669,13 +1693,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1779,6 +1900,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1835,13 +1977,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2183,9 +2328,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2221,7 +2364,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>36</v>
@@ -2235,10 +2378,10 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -2249,10 +2392,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -2263,10 +2406,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -2274,10 +2417,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>39</v>
@@ -2288,10 +2431,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>39</v>
@@ -2327,8 +2470,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2347,105 +2490,105 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="52"/>
+      <c r="F5" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -2480,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>20</v>
@@ -2503,13 +2646,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>22</v>
@@ -2526,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>23</v>
@@ -2549,10 +2692,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>25</v>
@@ -2600,10 +2743,10 @@
       <c r="B21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="46"/>
+      <c r="C21" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="53"/>
       <c r="E21" s="33" t="s">
         <v>22</v>
       </c>
@@ -2643,10 +2786,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2665,105 +2808,105 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="52"/>
+      <c r="F5" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -2798,16 +2941,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>9</v>
@@ -2821,16 +2964,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>9</v>
@@ -2844,16 +2987,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>9</v>
@@ -2867,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="21"/>
@@ -2884,13 +3027,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="21"/>
@@ -2901,13 +3044,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="21"/>
@@ -2918,13 +3061,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="21"/>
@@ -2935,13 +3078,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="21"/>
@@ -2952,10 +3095,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>23</v>
@@ -2975,10 +3118,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>25</v>
@@ -3019,33 +3162,53 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="30">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="38">
         <v>1</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="33" t="s">
+      <c r="C27" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -3069,7 +3232,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -3091,105 +3254,105 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="52"/>
+      <c r="F5" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3224,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>44</v>
+        <v>105</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>21</v>
@@ -3244,33 +3407,39 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="21"/>
@@ -3278,16 +3447,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="21"/>
@@ -3295,16 +3464,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="21"/>
@@ -3312,16 +3481,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="21"/>
@@ -3329,104 +3498,141 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="13">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="13">
         <v>7</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G22" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="15" t="s">
+    <row r="24" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="38">
+        <v>1</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="30">
-        <v>1</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="33" t="s">
+      <c r="F26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G27" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
@@ -3449,11 +3655,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3471,105 +3675,105 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="52"/>
+      <c r="F5" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3604,16 +3808,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
@@ -3623,16 +3827,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>9</v>
@@ -3646,16 +3850,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -3665,13 +3869,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="21"/>
@@ -3682,10 +3886,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>23</v>
@@ -3705,10 +3909,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>25</v>
@@ -3749,33 +3953,53 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="38">
         <v>1</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="33" t="s">
+      <c r="C23" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -3799,10 +4023,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3821,105 +4045,105 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="50"/>
+      <c r="C5" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="52"/>
+      <c r="F5" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3954,16 +4178,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>44</v>
+        <v>105</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>9</v>
@@ -3974,110 +4198,153 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="13">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G17" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="10" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G20" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="30">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="38">
         <v>1</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B21" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="33" t="s">
+      <c r="C21" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C20:D20"/>
+  <mergeCells count="14">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4094,10 +4361,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4116,105 +4383,105 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="50"/>
+      <c r="C5" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="52"/>
+      <c r="F5" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -4249,16 +4516,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
@@ -4268,16 +4535,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>9</v>
@@ -4291,16 +4558,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -4310,13 +4577,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="21"/>
@@ -4327,13 +4594,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="21"/>
@@ -4344,13 +4611,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="21"/>
@@ -4361,10 +4628,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>23</v>
@@ -4384,10 +4651,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>25</v>
@@ -4428,78 +4695,104 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="30">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="38">
         <v>1</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="33" t="s">
+      <c r="C25" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="54" t="s">
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="54" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="54" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="54" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="54" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="55" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -4507,12 +4800,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
